--- a/MySQL/17-MySQL负载均衡-高可用.xlsx
+++ b/MySQL/17-MySQL负载均衡-高可用.xlsx
@@ -16,9 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>负载均衡：</t>
     </r>
     <r>
@@ -47,6 +55,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【配置文件路径=》 /etc/haproxy/】【建议新增配置文件】
 global
         log 127.0.0.1 local2
@@ -263,6 +279,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>依照上面的配置文件需要放行：</t>
     </r>
     <r>
@@ -315,6 +339,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/usr/sbin/haproxy -f </t>
     </r>
     <r>
@@ -374,6 +406,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>高可用：</t>
     </r>
     <r>
@@ -399,6 +439,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">wget https://www.keepalived.org/software/keepalived-1.2.18.tar.gz【下载需要的版本】  =》  解压 tar -zxvf </t>
     </r>
     <r>
@@ -430,6 +478,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>cp /usr/local/keepalived/etc/rc.d/init.d/keepalived /etc/init.d/  【用于</t>
     </r>
     <r>
@@ -487,6 +543,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.</t>
     </r>
     <r>
@@ -547,6 +611,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.1</t>
     </r>
     <r>
@@ -620,6 +692,29 @@
 global_defs {
  router_id LVS_MASTER
 }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#不要忘记创建检查haproxy状态脚本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 vrrp_script chk_haproxy {
  script "/etc/keepalived/haproxy_check.sh" </t>
     </r>
@@ -1064,6 +1159,29 @@
 global_defs {
  router_id LVS_MASTER
 }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#不要忘记创建检查haproxy状态脚本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 vrrp_script chk_haproxy {
  script "/etc/keepalived/haproxy_check.sh" </t>
     </r>
@@ -1518,6 +1636,17 @@
   </si>
   <si>
     <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从服务器1</t>
     </r>
     <r>
@@ -1550,7 +1679,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">依次启动  =》 </t>
+      <t xml:space="preserve">的keepalived启动  =》 </t>
     </r>
     <r>
       <rPr>
@@ -1599,6 +1728,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">firewall-cmd --direct --permanent --add-rule ipv4 filter INPUT 0 --in-interface </t>
     </r>
     <r>
@@ -1648,15 +1785,56 @@
  fi
 fi</t>
   </si>
+  <si>
+    <t>11.创建脚本中的日志文件：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.给脚本和日志权限：chmod 777 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脚本文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志文件</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1702,21 +1880,29 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,7 +1916,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,6 +1939,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1767,6 +1975,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1782,71 +2022,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1862,14 +2047,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1878,7 +2055,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1886,6 +2063,7 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1908,7 +2086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,19 +2110,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,7 +2140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,19 +2152,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,31 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +2206,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,49 +2260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,11 +2295,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2150,6 +2343,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2161,30 +2363,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,10 +2385,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2219,137 +2397,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2369,16 +2547,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2395,11 +2564,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2838,10 +3004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -2900,258 +3066,258 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="2:7">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="2:7">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="2:7">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="2:7">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3184,7 +3350,7 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3192,21 +3358,21 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3214,10 +3380,10 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3225,24 +3391,24 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3250,10 +3416,10 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3261,359 +3427,359 @@
       <c r="A55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="G55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="1:11">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" customHeight="1" spans="1:11">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="1:11">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="1:11">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" customHeight="1" spans="1:11">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="1:11">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" customHeight="1" spans="1:11">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" customHeight="1" spans="1:11">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" customHeight="1" spans="1:11">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" customHeight="1" spans="1:11">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" customHeight="1" spans="1:11">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" customHeight="1" spans="1:11">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" customHeight="1" spans="1:11">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="1:11">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" customHeight="1" spans="1:11">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" customHeight="1" spans="1:11">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" customHeight="1" spans="1:11">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" customHeight="1" spans="1:11">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" customHeight="1" spans="1:11">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" customHeight="1" spans="1:11">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="1:11">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" customHeight="1" spans="1:11">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" customHeight="1" spans="1:11">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" customHeight="1" spans="1:11">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" customHeight="1" spans="1:11">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" customHeight="1" spans="1:11">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" customHeight="1" spans="1:11">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" customHeight="1" spans="1:11">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="85" customHeight="1" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3625,10 +3791,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="2:2">
-      <c r="B95" s="1" t="s">
+    <row r="95" customHeight="1" spans="2:11">
+      <c r="B95" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
     </row>
     <row r="96" customHeight="1" spans="3:3">
       <c r="C96" s="1" t="s">
@@ -3636,27 +3811,27 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="4:11">
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
     </row>
     <row r="98" customHeight="1" spans="3:11">
       <c r="C98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="100" customHeight="1" spans="1:1">
       <c r="A100" s="1" t="s">
@@ -3664,79 +3839,89 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="2:6">
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" customHeight="1" spans="2:6">
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" customHeight="1" spans="2:6">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" customHeight="1" spans="2:6">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" customHeight="1" spans="2:6">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
     </row>
     <row r="106" customHeight="1" spans="2:6">
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" customHeight="1" spans="2:6">
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" customHeight="1" spans="2:6">
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" customHeight="1" spans="2:6">
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" customHeight="1" spans="2:6">
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B35:K35"/>
@@ -3754,6 +3939,7 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="D97:K97"/>
     <mergeCell ref="C98:E98"/>
+    <mergeCell ref="A114:K114"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="B6:G33"/>
     <mergeCell ref="A39:K40"/>
